--- a/biology/Botanique/Haricot_Du_Couvent_Vogel/Haricot_Du_Couvent_Vogel.xlsx
+++ b/biology/Botanique/Haricot_Du_Couvent_Vogel/Haricot_Du_Couvent_Vogel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le haricot Du Couvent Vogel, haricot Du Couvent ou Klosterfrauen est une variété ancienne de plante potagère grimpante cultivée couramment en Suisse entre 1912 et 1957. Les graines à maturité sont de forme oblongue, bicolores rouge/violacé et blanc, et présentent un dessin pouvant évoquer la cornette des religieuses. La récolte peut s'effectuer en vert ou à maturité.
 </t>
@@ -511,9 +523,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les haricots Klosterfrauen se développent dans un climat continental à la suite d'un semis possible d'avril à août pour une terre réchauffée au-dessus de 10°c[1]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les haricots Klosterfrauen se développent dans un climat continental à la suite d'un semis possible d'avril à août pour une terre réchauffée au-dessus de 10°c. 
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Gastronomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Après récolte, les grains doivent être trempés plusieurs heures et cuits à l'eau. Ils ont une texture soyeuse sous la dent et peuvent se consommer chauds ou froids. 
 </t>
@@ -573,9 +589,11 @@
           <t>Diffusion</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En Suisse, il est diffusé sous l'appellation - Haricot cultivé à rames Du Couvent Vogel GE-189 sous le label Pro Specie Rara[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En Suisse, il est diffusé sous l'appellation - Haricot cultivé à rames Du Couvent Vogel GE-189 sous le label Pro Specie Rara.
 </t>
         </is>
       </c>
